--- a/src/test/resources/excel/vrlbus_datadriven.xlsx
+++ b/src/test/resources/excel/vrlbus_datadriven.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{97D3C4B6-6561-4B5A-8A8B-D41C321A693A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2FEA3655-4690-4D23-8CB8-9433ED193BE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="6015" xr2:uid="{C324B152-90AD-4163-9051-32A5FED4D93E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="6015" activeTab="1" xr2:uid="{C324B152-90AD-4163-9051-32A5FED4D93E}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
     <sheet name="Busesoncontract" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M18"/>
+  <oleSize ref="A1:I18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -201,9 +201,6 @@
     <t>DDR234we</t>
   </si>
   <si>
-    <t>asdfg</t>
-  </si>
-  <si>
     <t>ASFG@#$</t>
   </si>
   <si>
@@ -223,6 +220,12 @@
   </si>
   <si>
     <t>#$5689@yahoo.com</t>
+  </si>
+  <si>
+    <t>on time</t>
+  </si>
+  <si>
+    <t>asdfgADG</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8CC818-8032-4C38-8EBA-62DB741259E6}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -693,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC088E2-31F2-4C2B-8E20-478F971F4385}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,8 +807,8 @@
       <c r="N2" s="3">
         <v>20</v>
       </c>
-      <c r="O2" s="3">
-        <v>2345</v>
+      <c r="O2" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -813,7 +816,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3">
         <v>456789</v>
@@ -852,7 +855,7 @@
         <v>30</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -860,7 +863,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="3">
         <v>90678888888</v>
@@ -899,7 +902,7 @@
         <v>56</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -907,7 +910,7 @@
         <v>1234567</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="3">
         <v>68999999945</v>
@@ -946,7 +949,7 @@
         <v>57</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -954,7 +957,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="3">
         <v>3456901223</v>
@@ -993,7 +996,7 @@
         <v>58</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
